--- a/Compiler Application/Data/scanner.xlsx
+++ b/Compiler Application/Data/scanner.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>A</t>
   </si>
@@ -279,12 +279,105 @@
   <si>
     <t>Z</t>
   </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Inclusion</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Sfloat</t>
+  </si>
+  <si>
+    <t>Sinteger</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Struct</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Start Symbol</t>
+  </si>
+  <si>
+    <t>End Symbol</t>
+  </si>
+  <si>
+    <t>Logic operators</t>
+  </si>
+  <si>
+    <t>Braces</t>
+  </si>
+  <si>
+    <t>Quotation Mark</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Arithmetic Operation</t>
+  </si>
+  <si>
+    <t>single line comment</t>
+  </si>
+  <si>
+    <t>multiple line comment</t>
+  </si>
+  <si>
+    <t>relational operators</t>
+  </si>
+  <si>
+    <t>Access Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relational operators </t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +408,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -437,19 +530,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO255"/>
+  <dimension ref="A1:CP255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BW7" sqref="BW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,11 +840,11 @@
     <col min="52" max="54" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1019,17 +1115,20 @@
         <v>48</v>
       </c>
       <c r="CN1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="CO1" s="10" t="s">
+      <c r="CP1" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
@@ -1100,8 +1199,8 @@
       <c r="AX2" s="16"/>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="15"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
       <c r="BC2" s="4">
         <v>131</v>
       </c>
@@ -1166,7 +1265,7 @@
         <v>118</v>
       </c>
       <c r="BX2" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="BY2" s="4">
         <v>122</v>
@@ -1215,12 +1314,13 @@
       </c>
       <c r="CN2" s="4"/>
       <c r="CO2" s="4"/>
-    </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP2" s="4"/>
+    </row>
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
@@ -1318,12 +1418,13 @@
       <c r="CM3" s="4"/>
       <c r="CN3" s="4"/>
       <c r="CO3" s="4"/>
-    </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP3" s="4"/>
+    </row>
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
       <c r="C4" s="4"/>
@@ -1377,8 +1478,8 @@
       <c r="AX4" s="16"/>
       <c r="AY4" s="16"/>
       <c r="AZ4" s="15"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
@@ -1418,12 +1519,13 @@
       <c r="CM4" s="4"/>
       <c r="CN4" s="4"/>
       <c r="CO4" s="4"/>
-    </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP4" s="4"/>
+    </row>
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0</v>
       </c>
       <c r="C5" s="4"/>
@@ -1431,7 +1533,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1478,8 +1580,8 @@
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
       <c r="AZ5" s="15"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="4"/>
@@ -1519,13 +1621,14 @@
       <c r="CM5" s="4"/>
       <c r="CN5" s="4"/>
       <c r="CO5" s="4"/>
-    </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP5" s="4"/>
+    </row>
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
-        <v>1</v>
+      <c r="B6" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1577,8 +1680,8 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="AZ6" s="15"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
@@ -1618,12 +1721,13 @@
       <c r="CM6" s="4"/>
       <c r="CN6" s="4"/>
       <c r="CO6" s="4"/>
-    </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP6" s="4"/>
+    </row>
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0</v>
       </c>
       <c r="C7" s="4"/>
@@ -1678,8 +1782,8 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="AZ7" s="15"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
@@ -1719,12 +1823,13 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-    </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP7" s="4"/>
+    </row>
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0</v>
       </c>
       <c r="C8" s="4"/>
@@ -1779,8 +1884,8 @@
       <c r="AX8" s="16"/>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="15"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -1820,12 +1925,13 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-    </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP8" s="4"/>
+    </row>
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0</v>
       </c>
       <c r="C9" s="4"/>
@@ -1880,8 +1986,8 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="15"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23"/>
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
       <c r="BE9" s="4"/>
@@ -1921,12 +2027,13 @@
       <c r="CM9" s="4"/>
       <c r="CN9" s="4"/>
       <c r="CO9" s="4"/>
-    </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP9" s="4"/>
+    </row>
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0</v>
       </c>
       <c r="C10" s="4"/>
@@ -1981,8 +2088,8 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="AZ10" s="15"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23"/>
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
       <c r="BE10" s="4"/>
@@ -2022,12 +2129,13 @@
       <c r="CM10" s="4"/>
       <c r="CN10" s="4"/>
       <c r="CO10" s="4"/>
-    </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP10" s="4"/>
+    </row>
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
@@ -2082,8 +2190,8 @@
       <c r="AX11" s="16"/>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="15"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
       <c r="BE11" s="4"/>
@@ -2123,12 +2231,13 @@
       <c r="CM11" s="4"/>
       <c r="CN11" s="4"/>
       <c r="CO11" s="4"/>
-    </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP11" s="4"/>
+    </row>
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0</v>
       </c>
       <c r="C12" s="4"/>
@@ -2183,8 +2292,8 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="15"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
       <c r="BC12" s="4"/>
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
@@ -2224,12 +2333,13 @@
       <c r="CM12" s="4"/>
       <c r="CN12" s="4"/>
       <c r="CO12" s="4"/>
-    </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP12" s="4"/>
+    </row>
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0</v>
       </c>
       <c r="C13" s="4"/>
@@ -2284,8 +2394,8 @@
       <c r="AX13" s="16"/>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="15"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
       <c r="BC13" s="4"/>
       <c r="BD13" s="4"/>
       <c r="BE13" s="4"/>
@@ -2325,12 +2435,13 @@
       <c r="CM13" s="4"/>
       <c r="CN13" s="4"/>
       <c r="CO13" s="4"/>
-    </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP13" s="4"/>
+    </row>
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0</v>
       </c>
       <c r="C14" s="4"/>
@@ -2385,8 +2496,8 @@
       <c r="AX14" s="16"/>
       <c r="AY14" s="16"/>
       <c r="AZ14" s="15"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
       <c r="BE14" s="4"/>
@@ -2426,19 +2537,20 @@
       <c r="CM14" s="4"/>
       <c r="CN14" s="4"/>
       <c r="CO14" s="4"/>
-    </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP14" s="4"/>
+    </row>
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2486,8 +2598,8 @@
       <c r="AX15" s="16"/>
       <c r="AY15" s="16"/>
       <c r="AZ15" s="15"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
@@ -2527,13 +2639,14 @@
       <c r="CM15" s="4"/>
       <c r="CN15" s="4"/>
       <c r="CO15" s="4"/>
-    </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP15" s="4"/>
+    </row>
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="26">
-        <v>1</v>
+      <c r="B16" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2585,8 +2698,8 @@
       <c r="AX16" s="16"/>
       <c r="AY16" s="16"/>
       <c r="AZ16" s="15"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
@@ -2626,12 +2739,13 @@
       <c r="CM16" s="4"/>
       <c r="CN16" s="4"/>
       <c r="CO16" s="4"/>
-    </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP16" s="4"/>
+    </row>
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0</v>
       </c>
       <c r="C17" s="4"/>
@@ -2688,8 +2802,8 @@
       <c r="AX17" s="16"/>
       <c r="AY17" s="16"/>
       <c r="AZ17" s="15"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4"/>
       <c r="BE17" s="4"/>
@@ -2729,12 +2843,13 @@
       <c r="CM17" s="4"/>
       <c r="CN17" s="4"/>
       <c r="CO17" s="4"/>
-    </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP17" s="4"/>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0</v>
       </c>
       <c r="C18" s="4"/>
@@ -2789,8 +2904,8 @@
       <c r="AX18" s="16"/>
       <c r="AY18" s="16"/>
       <c r="AZ18" s="15"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
       <c r="BE18" s="4"/>
@@ -2830,12 +2945,13 @@
       <c r="CM18" s="4"/>
       <c r="CN18" s="4"/>
       <c r="CO18" s="4"/>
-    </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP18" s="4"/>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0</v>
       </c>
       <c r="C19" s="4"/>
@@ -2890,8 +3006,8 @@
       <c r="AX19" s="16"/>
       <c r="AY19" s="16"/>
       <c r="AZ19" s="15"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4"/>
       <c r="BE19" s="4"/>
@@ -2931,12 +3047,13 @@
       <c r="CM19" s="4"/>
       <c r="CN19" s="4"/>
       <c r="CO19" s="4"/>
-    </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP19" s="4"/>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0</v>
       </c>
       <c r="C20" s="4"/>
@@ -2991,8 +3108,8 @@
       <c r="AX20" s="16"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="15"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
       <c r="BC20" s="4"/>
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
@@ -3032,12 +3149,13 @@
       <c r="CM20" s="4"/>
       <c r="CN20" s="4"/>
       <c r="CO20" s="4"/>
-    </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP20" s="4"/>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0</v>
       </c>
       <c r="C21" s="4"/>
@@ -3092,8 +3210,8 @@
       <c r="AX21" s="16"/>
       <c r="AY21" s="16"/>
       <c r="AZ21" s="15"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
@@ -3133,12 +3251,13 @@
       <c r="CM21" s="4"/>
       <c r="CN21" s="4"/>
       <c r="CO21" s="4"/>
-    </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP21" s="4"/>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0</v>
       </c>
       <c r="C22" s="4"/>
@@ -3193,8 +3312,8 @@
       <c r="AX22" s="16"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="15"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
       <c r="BC22" s="4"/>
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
@@ -3234,13 +3353,14 @@
       <c r="CM22" s="4"/>
       <c r="CN22" s="4"/>
       <c r="CO22" s="4"/>
-    </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP22" s="4"/>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="26">
-        <v>1</v>
+      <c r="B23" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3292,8 +3412,8 @@
       <c r="AX23" s="16"/>
       <c r="AY23" s="16"/>
       <c r="AZ23" s="15"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
       <c r="BC23" s="4"/>
       <c r="BD23" s="4"/>
       <c r="BE23" s="4"/>
@@ -3333,12 +3453,13 @@
       <c r="CM23" s="4"/>
       <c r="CN23" s="4"/>
       <c r="CO23" s="4"/>
-    </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP23" s="4"/>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0</v>
       </c>
       <c r="C24" s="4"/>
@@ -3434,12 +3555,13 @@
       <c r="CM24" s="4"/>
       <c r="CN24" s="4"/>
       <c r="CO24" s="4"/>
-    </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP24" s="4"/>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>0</v>
       </c>
       <c r="C25" s="4"/>
@@ -3535,13 +3657,14 @@
       <c r="CM25" s="4"/>
       <c r="CN25" s="4"/>
       <c r="CO25" s="4"/>
-    </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP25" s="4"/>
+    </row>
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="26">
-        <v>1</v>
+      <c r="B26" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3634,12 +3757,13 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-    </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP26" s="4"/>
+    </row>
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0</v>
       </c>
       <c r="C27" s="4"/>
@@ -3735,12 +3859,13 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-    </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP27" s="4"/>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0</v>
       </c>
       <c r="C28" s="4"/>
@@ -3836,12 +3961,13 @@
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
-    </row>
-    <row r="29" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP28" s="4"/>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0</v>
       </c>
       <c r="C29" s="4"/>
@@ -3937,12 +4063,13 @@
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
-    </row>
-    <row r="30" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP29" s="4"/>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0</v>
       </c>
       <c r="C30" s="4"/>
@@ -4038,12 +4165,13 @@
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-    </row>
-    <row r="31" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP30" s="4"/>
+    </row>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>0</v>
       </c>
       <c r="C31" s="4"/>
@@ -4139,12 +4267,13 @@
       <c r="CM31" s="4"/>
       <c r="CN31" s="4"/>
       <c r="CO31" s="4"/>
-    </row>
-    <row r="32" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP31" s="4"/>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>0</v>
       </c>
       <c r="C32" s="4"/>
@@ -4240,13 +4369,14 @@
       <c r="CM32" s="4"/>
       <c r="CN32" s="4"/>
       <c r="CO32" s="4"/>
-    </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP32" s="4"/>
+    </row>
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="26">
-        <v>1</v>
+      <c r="B33" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -4339,12 +4469,13 @@
       <c r="CM33" s="4"/>
       <c r="CN33" s="4"/>
       <c r="CO33" s="4"/>
-    </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP33" s="4"/>
+    </row>
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>0</v>
       </c>
       <c r="C34" s="4"/>
@@ -4444,12 +4575,13 @@
       <c r="CM34" s="4"/>
       <c r="CN34" s="4"/>
       <c r="CO34" s="4"/>
-    </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP34" s="4"/>
+    </row>
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>0</v>
       </c>
       <c r="C35" s="4"/>
@@ -4545,12 +4677,13 @@
       <c r="CM35" s="4"/>
       <c r="CN35" s="4"/>
       <c r="CO35" s="4"/>
-    </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP35" s="4"/>
+    </row>
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0</v>
       </c>
       <c r="C36" s="4"/>
@@ -4646,12 +4779,13 @@
       <c r="CM36" s="4"/>
       <c r="CN36" s="4"/>
       <c r="CO36" s="4"/>
-    </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP36" s="4"/>
+    </row>
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>0</v>
       </c>
       <c r="C37" s="4"/>
@@ -4747,13 +4881,14 @@
       <c r="CM37" s="4"/>
       <c r="CN37" s="4"/>
       <c r="CO37" s="4"/>
-    </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP37" s="4"/>
+    </row>
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="26">
-        <v>1</v>
+      <c r="B38" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4846,13 +4981,14 @@
       <c r="CM38" s="4"/>
       <c r="CN38" s="4"/>
       <c r="CO38" s="4"/>
-    </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP38" s="4"/>
+    </row>
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="26">
-        <v>1</v>
+      <c r="B39" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -4945,12 +5081,13 @@
       <c r="CM39" s="4"/>
       <c r="CN39" s="4"/>
       <c r="CO39" s="4"/>
-    </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP39" s="4"/>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>0</v>
       </c>
       <c r="C40" s="4"/>
@@ -5046,12 +5183,13 @@
       <c r="CM40" s="4"/>
       <c r="CN40" s="4"/>
       <c r="CO40" s="4"/>
-    </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP40" s="4"/>
+    </row>
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>0</v>
       </c>
       <c r="C41" s="4"/>
@@ -5147,13 +5285,14 @@
       <c r="CM41" s="4"/>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
-    </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP41" s="4"/>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="26">
-        <v>1</v>
+      <c r="B42" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -5248,13 +5387,14 @@
       <c r="CM42" s="4"/>
       <c r="CN42" s="4"/>
       <c r="CO42" s="4"/>
-    </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP42" s="4"/>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="26">
-        <v>1</v>
+      <c r="B43" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -5347,12 +5487,13 @@
       <c r="CM43" s="4"/>
       <c r="CN43" s="4"/>
       <c r="CO43" s="4"/>
-    </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP43" s="4"/>
+    </row>
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>0</v>
       </c>
       <c r="C44" s="4"/>
@@ -5450,12 +5591,13 @@
       <c r="CM44" s="4"/>
       <c r="CN44" s="4"/>
       <c r="CO44" s="4"/>
-    </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP44" s="4"/>
+    </row>
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>0</v>
       </c>
       <c r="C45" s="4"/>
@@ -5551,12 +5693,13 @@
       <c r="CM45" s="4"/>
       <c r="CN45" s="4"/>
       <c r="CO45" s="4"/>
-    </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP45" s="4"/>
+    </row>
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>0</v>
       </c>
       <c r="C46" s="4"/>
@@ -5652,12 +5795,13 @@
       <c r="CM46" s="4"/>
       <c r="CN46" s="4"/>
       <c r="CO46" s="4"/>
-    </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP46" s="4"/>
+    </row>
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>0</v>
       </c>
       <c r="C47" s="4"/>
@@ -5753,12 +5897,13 @@
       <c r="CM47" s="4"/>
       <c r="CN47" s="4"/>
       <c r="CO47" s="4"/>
-    </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP47" s="4"/>
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>0</v>
       </c>
       <c r="C48" s="4"/>
@@ -5854,12 +5999,13 @@
       <c r="CM48" s="4"/>
       <c r="CN48" s="4"/>
       <c r="CO48" s="4"/>
-    </row>
-    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP48" s="4"/>
+    </row>
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>0</v>
       </c>
       <c r="C49" s="4"/>
@@ -5955,12 +6101,13 @@
       <c r="CM49" s="4"/>
       <c r="CN49" s="4"/>
       <c r="CO49" s="4"/>
-    </row>
-    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP49" s="4"/>
+    </row>
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>48</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>0</v>
       </c>
       <c r="C50" s="4"/>
@@ -6056,13 +6203,14 @@
       <c r="CM50" s="4"/>
       <c r="CN50" s="4"/>
       <c r="CO50" s="4"/>
-    </row>
-    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP50" s="4"/>
+    </row>
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="26">
-        <v>1</v>
+      <c r="B51" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -6155,12 +6303,13 @@
       <c r="CM51" s="4"/>
       <c r="CN51" s="4"/>
       <c r="CO51" s="4"/>
-    </row>
-    <row r="52" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP51" s="4"/>
+    </row>
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>0</v>
       </c>
       <c r="C52" s="4"/>
@@ -6258,12 +6407,13 @@
       <c r="CM52" s="4"/>
       <c r="CN52" s="4"/>
       <c r="CO52" s="4"/>
-    </row>
-    <row r="53" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP52" s="4"/>
+    </row>
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>51</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>0</v>
       </c>
       <c r="C53" s="4"/>
@@ -6359,12 +6509,13 @@
       <c r="CM53" s="4"/>
       <c r="CN53" s="4"/>
       <c r="CO53" s="4"/>
-    </row>
-    <row r="54" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP53" s="4"/>
+    </row>
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>52</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>0</v>
       </c>
       <c r="C54" s="4"/>
@@ -6460,12 +6611,13 @@
       <c r="CM54" s="4"/>
       <c r="CN54" s="4"/>
       <c r="CO54" s="4"/>
-    </row>
-    <row r="55" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP54" s="4"/>
+    </row>
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>0</v>
       </c>
       <c r="C55" s="4"/>
@@ -6561,12 +6713,13 @@
       <c r="CM55" s="4"/>
       <c r="CN55" s="4"/>
       <c r="CO55" s="4"/>
-    </row>
-    <row r="56" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP55" s="4"/>
+    </row>
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>0</v>
       </c>
       <c r="C56" s="4"/>
@@ -6662,13 +6815,14 @@
       <c r="CM56" s="4"/>
       <c r="CN56" s="4"/>
       <c r="CO56" s="4"/>
-    </row>
-    <row r="57" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP56" s="4"/>
+    </row>
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>55</v>
       </c>
-      <c r="B57" s="26">
-        <v>1</v>
+      <c r="B57" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -6761,12 +6915,13 @@
       <c r="CM57" s="4"/>
       <c r="CN57" s="4"/>
       <c r="CO57" s="4"/>
-    </row>
-    <row r="58" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP57" s="4"/>
+    </row>
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>56</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>0</v>
       </c>
       <c r="C58" s="4"/>
@@ -6862,12 +7017,13 @@
       <c r="CM58" s="4"/>
       <c r="CN58" s="4"/>
       <c r="CO58" s="4"/>
-    </row>
-    <row r="59" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP58" s="4"/>
+    </row>
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>57</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>0</v>
       </c>
       <c r="C59" s="4"/>
@@ -6963,12 +7119,13 @@
       <c r="CM59" s="4"/>
       <c r="CN59" s="4"/>
       <c r="CO59" s="4"/>
-    </row>
-    <row r="60" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP59" s="4"/>
+    </row>
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>58</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>0</v>
       </c>
       <c r="C60" s="4"/>
@@ -7064,12 +7221,13 @@
       <c r="CM60" s="4"/>
       <c r="CN60" s="4"/>
       <c r="CO60" s="4"/>
-    </row>
-    <row r="61" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP60" s="4"/>
+    </row>
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>59</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>0</v>
       </c>
       <c r="C61" s="4"/>
@@ -7165,12 +7323,13 @@
       <c r="CM61" s="4"/>
       <c r="CN61" s="4"/>
       <c r="CO61" s="4"/>
-    </row>
-    <row r="62" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP61" s="4"/>
+    </row>
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>60</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>0</v>
       </c>
       <c r="C62" s="4"/>
@@ -7266,12 +7425,13 @@
       <c r="CM62" s="4"/>
       <c r="CN62" s="4"/>
       <c r="CO62" s="4"/>
-    </row>
-    <row r="63" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP62" s="4"/>
+    </row>
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>0</v>
       </c>
       <c r="C63" s="4"/>
@@ -7367,12 +7527,13 @@
       <c r="CM63" s="4"/>
       <c r="CN63" s="4"/>
       <c r="CO63" s="4"/>
-    </row>
-    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP63" s="4"/>
+    </row>
+    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>62</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>0</v>
       </c>
       <c r="C64" s="4"/>
@@ -7468,12 +7629,13 @@
       <c r="CM64" s="4"/>
       <c r="CN64" s="4"/>
       <c r="CO64" s="4"/>
-    </row>
-    <row r="65" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP64" s="4"/>
+    </row>
+    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>63</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>0</v>
       </c>
       <c r="C65" s="4"/>
@@ -7569,13 +7731,14 @@
       <c r="CM65" s="4"/>
       <c r="CN65" s="4"/>
       <c r="CO65" s="4"/>
-    </row>
-    <row r="66" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP65" s="4"/>
+    </row>
+    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>64</v>
       </c>
-      <c r="B66" s="26">
-        <v>1</v>
+      <c r="B66" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -7668,12 +7831,13 @@
       <c r="CM66" s="4"/>
       <c r="CN66" s="4"/>
       <c r="CO66" s="4"/>
-    </row>
-    <row r="67" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP66" s="4"/>
+    </row>
+    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>65</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>0</v>
       </c>
       <c r="C67" s="4"/>
@@ -7775,12 +7939,13 @@
       <c r="CM67" s="4"/>
       <c r="CN67" s="4"/>
       <c r="CO67" s="4"/>
-    </row>
-    <row r="68" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP67" s="4"/>
+    </row>
+    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>66</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>0</v>
       </c>
       <c r="C68" s="4"/>
@@ -7876,12 +8041,13 @@
       <c r="CM68" s="4"/>
       <c r="CN68" s="4"/>
       <c r="CO68" s="4"/>
-    </row>
-    <row r="69" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP68" s="4"/>
+    </row>
+    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>67</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>0</v>
       </c>
       <c r="C69" s="4"/>
@@ -7977,12 +8143,13 @@
       <c r="CM69" s="4"/>
       <c r="CN69" s="4"/>
       <c r="CO69" s="4"/>
-    </row>
-    <row r="70" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP69" s="4"/>
+    </row>
+    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>68</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>0</v>
       </c>
       <c r="C70" s="4"/>
@@ -8078,13 +8245,14 @@
       <c r="CM70" s="4"/>
       <c r="CN70" s="4"/>
       <c r="CO70" s="4"/>
-    </row>
-    <row r="71" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP70" s="4"/>
+    </row>
+    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>69</v>
       </c>
-      <c r="B71" s="26">
-        <v>1</v>
+      <c r="B71" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -8179,13 +8347,14 @@
       <c r="CM71" s="4"/>
       <c r="CN71" s="4"/>
       <c r="CO71" s="4"/>
-    </row>
-    <row r="72" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP71" s="4"/>
+    </row>
+    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>70</v>
       </c>
-      <c r="B72" s="26">
-        <v>1</v>
+      <c r="B72" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -8278,12 +8447,13 @@
       <c r="CM72" s="4"/>
       <c r="CN72" s="4"/>
       <c r="CO72" s="4"/>
-    </row>
-    <row r="73" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP72" s="4"/>
+    </row>
+    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>71</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>0</v>
       </c>
       <c r="C73" s="4"/>
@@ -8379,12 +8549,13 @@
       <c r="CM73" s="4"/>
       <c r="CN73" s="4"/>
       <c r="CO73" s="4"/>
-    </row>
-    <row r="74" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP73" s="4"/>
+    </row>
+    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>72</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>0</v>
       </c>
       <c r="C74" s="4"/>
@@ -8480,12 +8651,13 @@
       <c r="CM74" s="4"/>
       <c r="CN74" s="4"/>
       <c r="CO74" s="4"/>
-    </row>
-    <row r="75" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP74" s="4"/>
+    </row>
+    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>73</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <v>0</v>
       </c>
       <c r="C75" s="4"/>
@@ -8581,12 +8753,13 @@
       <c r="CM75" s="4"/>
       <c r="CN75" s="4"/>
       <c r="CO75" s="4"/>
-    </row>
-    <row r="76" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP75" s="4"/>
+    </row>
+    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>74</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>0</v>
       </c>
       <c r="C76" s="4"/>
@@ -8682,12 +8855,13 @@
       <c r="CM76" s="4"/>
       <c r="CN76" s="4"/>
       <c r="CO76" s="4"/>
-    </row>
-    <row r="77" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP76" s="4"/>
+    </row>
+    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>75</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="25">
         <v>0</v>
       </c>
       <c r="C77" s="4"/>
@@ -8783,12 +8957,13 @@
       <c r="CM77" s="4"/>
       <c r="CN77" s="4"/>
       <c r="CO77" s="4"/>
-    </row>
-    <row r="78" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP77" s="4"/>
+    </row>
+    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>76</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="25">
         <v>0</v>
       </c>
       <c r="C78" s="4"/>
@@ -8884,13 +9059,14 @@
       <c r="CM78" s="4"/>
       <c r="CN78" s="4"/>
       <c r="CO78" s="4"/>
-    </row>
-    <row r="79" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP78" s="4"/>
+    </row>
+    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>77</v>
       </c>
-      <c r="B79" s="26">
-        <v>1</v>
+      <c r="B79" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -8983,12 +9159,13 @@
       <c r="CM79" s="4"/>
       <c r="CN79" s="4"/>
       <c r="CO79" s="4"/>
-    </row>
-    <row r="80" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP79" s="4"/>
+    </row>
+    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>78</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="25">
         <v>0</v>
       </c>
       <c r="C80" s="4"/>
@@ -9084,12 +9261,13 @@
       <c r="CM80" s="4"/>
       <c r="CN80" s="4"/>
       <c r="CO80" s="4"/>
-    </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP80" s="4"/>
+    </row>
+    <row r="81" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>79</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81" s="25">
         <v>0</v>
       </c>
       <c r="C81" s="4"/>
@@ -9185,13 +9363,14 @@
       <c r="CM81" s="4"/>
       <c r="CN81" s="4"/>
       <c r="CO81" s="4"/>
-    </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP81" s="4"/>
+    </row>
+    <row r="82" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>80</v>
       </c>
-      <c r="B82" s="26">
-        <v>1</v>
+      <c r="B82" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -9284,12 +9463,13 @@
       <c r="CM82" s="4"/>
       <c r="CN82" s="4"/>
       <c r="CO82" s="4"/>
-    </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP82" s="4"/>
+    </row>
+    <row r="83" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>81</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B83" s="25">
         <v>0</v>
       </c>
       <c r="C83" s="4"/>
@@ -9385,12 +9565,13 @@
       <c r="CM83" s="4"/>
       <c r="CN83" s="4"/>
       <c r="CO83" s="4"/>
-    </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP83" s="4"/>
+    </row>
+    <row r="84" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>82</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="25">
         <v>0</v>
       </c>
       <c r="C84" s="4"/>
@@ -9486,13 +9667,14 @@
       <c r="CM84" s="4"/>
       <c r="CN84" s="4"/>
       <c r="CO84" s="4"/>
-    </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP84" s="4"/>
+    </row>
+    <row r="85" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>83</v>
       </c>
-      <c r="B85" s="26">
-        <v>1</v>
+      <c r="B85" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -9585,12 +9767,13 @@
       <c r="CM85" s="4"/>
       <c r="CN85" s="4"/>
       <c r="CO85" s="4"/>
-    </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP85" s="4"/>
+    </row>
+    <row r="86" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>84</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B86" s="25">
         <v>0</v>
       </c>
       <c r="C86" s="4"/>
@@ -9686,12 +9869,13 @@
       <c r="CM86" s="4"/>
       <c r="CN86" s="4"/>
       <c r="CO86" s="4"/>
-    </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP86" s="4"/>
+    </row>
+    <row r="87" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>85</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B87" s="25">
         <v>0</v>
       </c>
       <c r="C87" s="4"/>
@@ -9787,12 +9971,13 @@
       <c r="CM87" s="4"/>
       <c r="CN87" s="4"/>
       <c r="CO87" s="4"/>
-    </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP87" s="4"/>
+    </row>
+    <row r="88" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>86</v>
       </c>
-      <c r="B88" s="26">
+      <c r="B88" s="25">
         <v>0</v>
       </c>
       <c r="C88" s="4"/>
@@ -9888,13 +10073,14 @@
       <c r="CM88" s="4"/>
       <c r="CN88" s="4"/>
       <c r="CO88" s="4"/>
-    </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP88" s="4"/>
+    </row>
+    <row r="89" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>87</v>
       </c>
-      <c r="B89" s="26">
-        <v>1</v>
+      <c r="B89" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -9987,12 +10173,13 @@
       <c r="CM89" s="4"/>
       <c r="CN89" s="4"/>
       <c r="CO89" s="4"/>
-    </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP89" s="4"/>
+    </row>
+    <row r="90" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>88</v>
       </c>
-      <c r="B90" s="26">
+      <c r="B90" s="25">
         <v>0</v>
       </c>
       <c r="C90" s="4"/>
@@ -10088,12 +10275,13 @@
       <c r="CM90" s="4"/>
       <c r="CN90" s="4"/>
       <c r="CO90" s="4"/>
-    </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP90" s="4"/>
+    </row>
+    <row r="91" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>89</v>
       </c>
-      <c r="B91" s="26">
+      <c r="B91" s="25">
         <v>0</v>
       </c>
       <c r="C91" s="4"/>
@@ -10189,12 +10377,13 @@
       <c r="CM91" s="4"/>
       <c r="CN91" s="4"/>
       <c r="CO91" s="4"/>
-    </row>
-    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP91" s="4"/>
+    </row>
+    <row r="92" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>90</v>
       </c>
-      <c r="B92" s="26">
+      <c r="B92" s="25">
         <v>0</v>
       </c>
       <c r="C92" s="4"/>
@@ -10290,12 +10479,13 @@
       <c r="CM92" s="4"/>
       <c r="CN92" s="4"/>
       <c r="CO92" s="4"/>
-    </row>
-    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP92" s="4"/>
+    </row>
+    <row r="93" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>91</v>
       </c>
-      <c r="B93" s="26">
+      <c r="B93" s="25">
         <v>0</v>
       </c>
       <c r="C93" s="4"/>
@@ -10391,12 +10581,13 @@
       <c r="CM93" s="4"/>
       <c r="CN93" s="4"/>
       <c r="CO93" s="4"/>
-    </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP93" s="4"/>
+    </row>
+    <row r="94" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>92</v>
       </c>
-      <c r="B94" s="26">
+      <c r="B94" s="25">
         <v>0</v>
       </c>
       <c r="C94" s="4"/>
@@ -10492,12 +10683,13 @@
       <c r="CM94" s="4"/>
       <c r="CN94" s="4"/>
       <c r="CO94" s="4"/>
-    </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP94" s="4"/>
+    </row>
+    <row r="95" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>93</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B95" s="25">
         <v>0</v>
       </c>
       <c r="C95" s="4"/>
@@ -10593,12 +10785,13 @@
       <c r="CM95" s="4"/>
       <c r="CN95" s="4"/>
       <c r="CO95" s="4"/>
-    </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP95" s="4"/>
+    </row>
+    <row r="96" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>94</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B96" s="25">
         <v>0</v>
       </c>
       <c r="C96" s="4"/>
@@ -10694,12 +10887,13 @@
       <c r="CM96" s="4"/>
       <c r="CN96" s="4"/>
       <c r="CO96" s="4"/>
-    </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP96" s="4"/>
+    </row>
+    <row r="97" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>95</v>
       </c>
-      <c r="B97" s="26">
+      <c r="B97" s="25">
         <v>0</v>
       </c>
       <c r="C97" s="4"/>
@@ -10795,13 +10989,14 @@
       <c r="CM97" s="4"/>
       <c r="CN97" s="4"/>
       <c r="CO97" s="4"/>
-    </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP97" s="4"/>
+    </row>
+    <row r="98" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>96</v>
       </c>
-      <c r="B98" s="26">
-        <v>1</v>
+      <c r="B98" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -10894,12 +11089,13 @@
       <c r="CM98" s="4"/>
       <c r="CN98" s="4"/>
       <c r="CO98" s="4"/>
-    </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP98" s="4"/>
+    </row>
+    <row r="99" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>97</v>
       </c>
-      <c r="B99" s="26">
+      <c r="B99" s="25">
         <v>0</v>
       </c>
       <c r="C99" s="4"/>
@@ -10995,12 +11191,13 @@
       <c r="CM99" s="4"/>
       <c r="CN99" s="4"/>
       <c r="CO99" s="4"/>
-    </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP99" s="4"/>
+    </row>
+    <row r="100" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>98</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B100" s="25">
         <v>0</v>
       </c>
       <c r="C100" s="4"/>
@@ -11096,12 +11293,13 @@
       <c r="CM100" s="4"/>
       <c r="CN100" s="4"/>
       <c r="CO100" s="4"/>
-    </row>
-    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP100" s="4"/>
+    </row>
+    <row r="101" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>99</v>
       </c>
-      <c r="B101" s="26">
+      <c r="B101" s="25">
         <v>0</v>
       </c>
       <c r="C101" s="4"/>
@@ -11197,13 +11395,14 @@
       <c r="CM101" s="4"/>
       <c r="CN101" s="4"/>
       <c r="CO101" s="4"/>
-    </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP101" s="4"/>
+    </row>
+    <row r="102" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>100</v>
       </c>
-      <c r="B102" s="26">
-        <v>1</v>
+      <c r="B102" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -11296,13 +11495,14 @@
       <c r="CM102" s="4"/>
       <c r="CN102" s="4"/>
       <c r="CO102" s="4"/>
-    </row>
-    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP102" s="4"/>
+    </row>
+    <row r="103" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>101</v>
       </c>
-      <c r="B103" s="26">
-        <v>1</v>
+      <c r="B103" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -11395,13 +11595,14 @@
       <c r="CM103" s="4"/>
       <c r="CN103" s="4"/>
       <c r="CO103" s="4"/>
-    </row>
-    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP103" s="4"/>
+    </row>
+    <row r="104" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>102</v>
       </c>
-      <c r="B104" s="26">
-        <v>1</v>
+      <c r="B104" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -11494,13 +11695,14 @@
       <c r="CM104" s="4"/>
       <c r="CN104" s="4"/>
       <c r="CO104" s="4"/>
-    </row>
-    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP104" s="4"/>
+    </row>
+    <row r="105" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>103</v>
       </c>
-      <c r="B105" s="26">
-        <v>1</v>
+      <c r="B105" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -11593,13 +11795,14 @@
       <c r="CM105" s="4"/>
       <c r="CN105" s="4"/>
       <c r="CO105" s="4"/>
-    </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP105" s="4"/>
+    </row>
+    <row r="106" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>104</v>
       </c>
-      <c r="B106" s="26">
-        <v>1</v>
+      <c r="B106" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -11692,12 +11895,13 @@
       <c r="CM106" s="4"/>
       <c r="CN106" s="4"/>
       <c r="CO106" s="4"/>
-    </row>
-    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP106" s="4"/>
+    </row>
+    <row r="107" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>105</v>
       </c>
-      <c r="B107" s="26">
+      <c r="B107" s="25">
         <v>0</v>
       </c>
       <c r="C107" s="4"/>
@@ -11793,13 +11997,14 @@
       <c r="CM107" s="4"/>
       <c r="CN107" s="4"/>
       <c r="CO107" s="4"/>
-    </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP107" s="4"/>
+    </row>
+    <row r="108" spans="1:94" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>106</v>
       </c>
-      <c r="B108" s="26">
-        <v>1</v>
+      <c r="B108" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -11892,13 +12097,14 @@
       <c r="CM108" s="4"/>
       <c r="CN108" s="4"/>
       <c r="CO108" s="4"/>
-    </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP108" s="4"/>
+    </row>
+    <row r="109" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>107</v>
       </c>
-      <c r="B109" s="26">
-        <v>1</v>
+      <c r="B109" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -11993,13 +12199,14 @@
       <c r="CM109" s="4"/>
       <c r="CN109" s="4"/>
       <c r="CO109" s="4"/>
-    </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP109" s="4"/>
+    </row>
+    <row r="110" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>108</v>
       </c>
-      <c r="B110" s="26">
-        <v>1</v>
+      <c r="B110" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -12092,12 +12299,13 @@
       <c r="CM110" s="4"/>
       <c r="CN110" s="4"/>
       <c r="CO110" s="4"/>
-    </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP110" s="4"/>
+    </row>
+    <row r="111" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>109</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B111" s="25">
         <v>0</v>
       </c>
       <c r="C111" s="4"/>
@@ -12191,13 +12399,14 @@
       <c r="CM111" s="4"/>
       <c r="CN111" s="4"/>
       <c r="CO111" s="4"/>
-    </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP111" s="4"/>
+    </row>
+    <row r="112" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>110</v>
       </c>
-      <c r="B112" s="26">
-        <v>1</v>
+      <c r="B112" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -12290,12 +12499,13 @@
       <c r="CM112" s="4"/>
       <c r="CN112" s="4"/>
       <c r="CO112" s="4"/>
-    </row>
-    <row r="113" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP112" s="4"/>
+    </row>
+    <row r="113" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>111</v>
       </c>
-      <c r="B113" s="26">
+      <c r="B113" s="25">
         <v>0</v>
       </c>
       <c r="C113" s="4"/>
@@ -12391,13 +12601,14 @@
       <c r="CM113" s="4"/>
       <c r="CN113" s="4"/>
       <c r="CO113" s="4"/>
-    </row>
-    <row r="114" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP113" s="4"/>
+    </row>
+    <row r="114" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>112</v>
       </c>
-      <c r="B114" s="26">
-        <v>1</v>
+      <c r="B114" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -12490,13 +12701,14 @@
       <c r="CM114" s="4"/>
       <c r="CN114" s="4"/>
       <c r="CO114" s="4"/>
-    </row>
-    <row r="115" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP114" s="4"/>
+    </row>
+    <row r="115" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>113</v>
       </c>
-      <c r="B115" s="26">
-        <v>1</v>
+      <c r="B115" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -12589,12 +12801,13 @@
       <c r="CM115" s="4"/>
       <c r="CN115" s="4"/>
       <c r="CO115" s="4"/>
-    </row>
-    <row r="116" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP115" s="4"/>
+    </row>
+    <row r="116" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>114</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B116" s="25">
         <v>0</v>
       </c>
       <c r="C116" s="4"/>
@@ -12690,13 +12903,14 @@
       <c r="CM116" s="4"/>
       <c r="CN116" s="4"/>
       <c r="CO116" s="4"/>
-    </row>
-    <row r="117" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP116" s="4"/>
+    </row>
+    <row r="117" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>115</v>
       </c>
-      <c r="B117" s="26">
-        <v>1</v>
+      <c r="B117" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -12789,13 +13003,14 @@
       <c r="CM117" s="4"/>
       <c r="CN117" s="4"/>
       <c r="CO117" s="4"/>
-    </row>
-    <row r="118" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP117" s="4"/>
+    </row>
+    <row r="118" spans="1:94" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>116</v>
       </c>
-      <c r="B118" s="26">
-        <v>1</v>
+      <c r="B118" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -12888,12 +13103,13 @@
       <c r="CM118" s="4"/>
       <c r="CN118" s="4"/>
       <c r="CO118" s="4"/>
-    </row>
-    <row r="119" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP118" s="4"/>
+    </row>
+    <row r="119" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>117</v>
       </c>
-      <c r="B119" s="26">
+      <c r="B119" s="25">
         <v>0</v>
       </c>
       <c r="C119" s="4"/>
@@ -12987,13 +13203,14 @@
       <c r="CM119" s="4"/>
       <c r="CN119" s="4"/>
       <c r="CO119" s="4"/>
-    </row>
-    <row r="120" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP119" s="4"/>
+    </row>
+    <row r="120" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>118</v>
       </c>
-      <c r="B120" s="26">
-        <v>0</v>
+      <c r="B120" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -13088,13 +13305,14 @@
       <c r="CM120" s="4"/>
       <c r="CN120" s="4"/>
       <c r="CO120" s="4"/>
-    </row>
-    <row r="121" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP120" s="4"/>
+    </row>
+    <row r="121" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>119</v>
       </c>
-      <c r="B121" s="26">
-        <v>1</v>
+      <c r="B121" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -13187,12 +13405,13 @@
       <c r="CM121" s="4"/>
       <c r="CN121" s="4"/>
       <c r="CO121" s="4"/>
-    </row>
-    <row r="122" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP121" s="4"/>
+    </row>
+    <row r="122" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>120</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="25">
         <v>0</v>
       </c>
       <c r="C122" s="4"/>
@@ -13286,13 +13505,14 @@
       <c r="CM122" s="4"/>
       <c r="CN122" s="4"/>
       <c r="CO122" s="4"/>
-    </row>
-    <row r="123" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP122" s="4"/>
+    </row>
+    <row r="123" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>121</v>
       </c>
-      <c r="B123" s="26">
-        <v>1</v>
+      <c r="B123" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -13385,12 +13605,13 @@
       <c r="CM123" s="4"/>
       <c r="CN123" s="4"/>
       <c r="CO123" s="4"/>
-    </row>
-    <row r="124" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP123" s="4"/>
+    </row>
+    <row r="124" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>122</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B124" s="25">
         <v>0</v>
       </c>
       <c r="C124" s="4"/>
@@ -13486,13 +13707,14 @@
       <c r="CM124" s="4"/>
       <c r="CN124" s="4"/>
       <c r="CO124" s="4"/>
-    </row>
-    <row r="125" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP124" s="4"/>
+    </row>
+    <row r="125" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>123</v>
       </c>
-      <c r="B125" s="26">
-        <v>1</v>
+      <c r="B125" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -13585,13 +13807,14 @@
       <c r="CM125" s="4"/>
       <c r="CN125" s="4"/>
       <c r="CO125" s="4"/>
-    </row>
-    <row r="126" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP125" s="4"/>
+    </row>
+    <row r="126" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>124</v>
       </c>
-      <c r="B126" s="26">
-        <v>1</v>
+      <c r="B126" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -13684,13 +13907,14 @@
       <c r="CM126" s="4"/>
       <c r="CN126" s="4"/>
       <c r="CO126" s="4"/>
-    </row>
-    <row r="127" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP126" s="4"/>
+    </row>
+    <row r="127" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>125</v>
       </c>
-      <c r="B127" s="26">
-        <v>1</v>
+      <c r="B127" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -13783,13 +14007,14 @@
       <c r="CM127" s="4"/>
       <c r="CN127" s="4"/>
       <c r="CO127" s="4"/>
-    </row>
-    <row r="128" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP127" s="4"/>
+    </row>
+    <row r="128" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>126</v>
       </c>
-      <c r="B128" s="26">
-        <v>1</v>
+      <c r="B128" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -13882,13 +14107,14 @@
       <c r="CM128" s="4"/>
       <c r="CN128" s="4"/>
       <c r="CO128" s="4"/>
-    </row>
-    <row r="129" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP128" s="4"/>
+    </row>
+    <row r="129" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>127</v>
       </c>
-      <c r="B129" s="26">
-        <v>1</v>
+      <c r="B129" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -13981,13 +14207,14 @@
       <c r="CM129" s="4"/>
       <c r="CN129" s="4"/>
       <c r="CO129" s="4"/>
-    </row>
-    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP129" s="4"/>
+    </row>
+    <row r="130" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>128</v>
       </c>
-      <c r="B130" s="26">
-        <v>1</v>
+      <c r="B130" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -14080,13 +14307,14 @@
       <c r="CM130" s="4"/>
       <c r="CN130" s="4"/>
       <c r="CO130" s="4"/>
-    </row>
-    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP130" s="4"/>
+    </row>
+    <row r="131" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>129</v>
       </c>
-      <c r="B131" s="26">
-        <v>1</v>
+      <c r="B131" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -14179,13 +14407,14 @@
       <c r="CM131" s="4"/>
       <c r="CN131" s="4"/>
       <c r="CO131" s="4"/>
-    </row>
-    <row r="132" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP131" s="4"/>
+    </row>
+    <row r="132" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>130</v>
       </c>
-      <c r="B132" s="26">
-        <v>1</v>
+      <c r="B132" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -14278,13 +14507,14 @@
       <c r="CM132" s="4"/>
       <c r="CN132" s="4"/>
       <c r="CO132" s="4"/>
-    </row>
-    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP132" s="4"/>
+    </row>
+    <row r="133" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>131</v>
       </c>
-      <c r="B133" s="26">
-        <v>1</v>
+      <c r="B133" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -14377,13 +14607,14 @@
       <c r="CM133" s="4"/>
       <c r="CN133" s="4"/>
       <c r="CO133" s="4"/>
-    </row>
-    <row r="134" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP133" s="4"/>
+    </row>
+    <row r="134" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>132</v>
       </c>
-      <c r="B134" s="26">
-        <v>1</v>
+      <c r="B134" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -14476,13 +14707,14 @@
       <c r="CM134" s="4"/>
       <c r="CN134" s="4"/>
       <c r="CO134" s="4"/>
-    </row>
-    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP134" s="4"/>
+    </row>
+    <row r="135" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>133</v>
       </c>
-      <c r="B135" s="26">
-        <v>1</v>
+      <c r="B135" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -14575,13 +14807,14 @@
       <c r="CM135" s="4"/>
       <c r="CN135" s="4"/>
       <c r="CO135" s="4"/>
-    </row>
-    <row r="136" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP135" s="4"/>
+    </row>
+    <row r="136" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>134</v>
       </c>
-      <c r="B136" s="26">
-        <v>1</v>
+      <c r="B136" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -14674,13 +14907,14 @@
       <c r="CM136" s="4"/>
       <c r="CN136" s="4"/>
       <c r="CO136" s="4"/>
-    </row>
-    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP136" s="4"/>
+    </row>
+    <row r="137" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>135</v>
       </c>
-      <c r="B137" s="26">
-        <v>1</v>
+      <c r="B137" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -14773,13 +15007,14 @@
       <c r="CM137" s="4"/>
       <c r="CN137" s="4"/>
       <c r="CO137" s="4"/>
-    </row>
-    <row r="138" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP137" s="4"/>
+    </row>
+    <row r="138" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>136</v>
       </c>
-      <c r="B138" s="26">
-        <v>1</v>
+      <c r="B138" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -14872,13 +15107,14 @@
       <c r="CM138" s="4"/>
       <c r="CN138" s="4"/>
       <c r="CO138" s="4"/>
-    </row>
-    <row r="139" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP138" s="4"/>
+    </row>
+    <row r="139" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>137</v>
       </c>
-      <c r="B139" s="26">
-        <v>1</v>
+      <c r="B139" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -14971,13 +15207,14 @@
       <c r="CM139" s="4"/>
       <c r="CN139" s="4"/>
       <c r="CO139" s="4"/>
-    </row>
-    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP139" s="4"/>
+    </row>
+    <row r="140" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>138</v>
       </c>
-      <c r="B140" s="26">
-        <v>1</v>
+      <c r="B140" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -15070,13 +15307,14 @@
       <c r="CM140" s="4"/>
       <c r="CN140" s="4"/>
       <c r="CO140" s="4"/>
-    </row>
-    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP140" s="4"/>
+    </row>
+    <row r="141" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>139</v>
       </c>
-      <c r="B141" s="26">
-        <v>1</v>
+      <c r="B141" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -15169,13 +15407,14 @@
       <c r="CM141" s="4"/>
       <c r="CN141" s="4"/>
       <c r="CO141" s="4"/>
-    </row>
-    <row r="142" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP141" s="4"/>
+    </row>
+    <row r="142" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>140</v>
       </c>
-      <c r="B142" s="26">
-        <v>1</v>
+      <c r="B142" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -15268,13 +15507,14 @@
       <c r="CM142" s="4"/>
       <c r="CN142" s="4"/>
       <c r="CO142" s="4"/>
-    </row>
-    <row r="143" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP142" s="4"/>
+    </row>
+    <row r="143" spans="1:94" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>141</v>
       </c>
-      <c r="B143" s="26">
-        <v>1</v>
+      <c r="B143" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -15369,12 +15609,13 @@
       <c r="CM143" s="4"/>
       <c r="CN143" s="4"/>
       <c r="CO143" s="4"/>
-    </row>
-    <row r="144" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP143" s="4"/>
+    </row>
+    <row r="144" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>142</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B144" s="25">
         <v>0</v>
       </c>
       <c r="C144" s="4"/>
@@ -15470,13 +15711,14 @@
       <c r="CM144" s="4"/>
       <c r="CN144" s="4"/>
       <c r="CO144" s="4"/>
-    </row>
-    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP144" s="4"/>
+    </row>
+    <row r="145" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>143</v>
       </c>
-      <c r="B145" s="26">
-        <v>1</v>
+      <c r="B145" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -15569,12 +15811,13 @@
       <c r="CM145" s="4"/>
       <c r="CN145" s="4"/>
       <c r="CO145" s="4"/>
-    </row>
-    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP145" s="4"/>
+    </row>
+    <row r="146" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>144</v>
       </c>
-      <c r="B146" s="26">
+      <c r="B146" s="25">
         <v>0</v>
       </c>
       <c r="C146" s="4"/>
@@ -15668,13 +15911,14 @@
       <c r="CM146" s="4"/>
       <c r="CN146" s="4"/>
       <c r="CO146" s="4"/>
-    </row>
-    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP146" s="4"/>
+    </row>
+    <row r="147" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>145</v>
       </c>
-      <c r="B147" s="26">
-        <v>0</v>
+      <c r="B147" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -15771,12 +16015,13 @@
       <c r="CM147" s="4"/>
       <c r="CN147" s="4"/>
       <c r="CO147" s="4"/>
-    </row>
-    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP147" s="4"/>
+    </row>
+    <row r="148" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>146</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B148" s="25">
         <v>0</v>
       </c>
       <c r="C148" s="4"/>
@@ -15871,15 +16116,16 @@
       <c r="CL148" s="4"/>
       <c r="CM148" s="4"/>
       <c r="CN148" s="4"/>
-      <c r="CO148" s="4">
+      <c r="CO148" s="4"/>
+      <c r="CP148" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>147</v>
       </c>
-      <c r="B149" s="26">
+      <c r="B149" s="25">
         <v>0</v>
       </c>
       <c r="C149" s="4"/>
@@ -15976,16 +16222,17 @@
       <c r="CL149" s="4"/>
       <c r="CM149" s="4"/>
       <c r="CN149" s="4"/>
-      <c r="CO149" s="4">
+      <c r="CO149" s="4"/>
+      <c r="CP149" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>148</v>
       </c>
-      <c r="B150" s="26">
-        <v>1</v>
+      <c r="B150" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -16078,12 +16325,13 @@
       <c r="CM150" s="4"/>
       <c r="CN150" s="4"/>
       <c r="CO150" s="4"/>
-    </row>
-    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP150" s="4"/>
+    </row>
+    <row r="151" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>149</v>
       </c>
-      <c r="B151" s="26">
+      <c r="B151" s="25">
         <v>1</v>
       </c>
       <c r="C151" s="4"/>
@@ -16177,12 +16425,13 @@
       <c r="CM151" s="4"/>
       <c r="CN151" s="4"/>
       <c r="CO151" s="4"/>
-    </row>
-    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP151" s="4"/>
+    </row>
+    <row r="152" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>150</v>
       </c>
-      <c r="B152" s="26">
+      <c r="B152" s="25">
         <v>1</v>
       </c>
       <c r="C152" s="4"/>
@@ -16276,12 +16525,13 @@
       <c r="CM152" s="4"/>
       <c r="CN152" s="4"/>
       <c r="CO152" s="4"/>
-    </row>
-    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP152" s="4"/>
+    </row>
+    <row r="153" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>151</v>
       </c>
-      <c r="B153" s="26">
+      <c r="B153" s="25">
         <v>1</v>
       </c>
       <c r="C153" s="4"/>
@@ -16375,12 +16625,13 @@
       <c r="CM153" s="4"/>
       <c r="CN153" s="4"/>
       <c r="CO153" s="4"/>
-    </row>
-    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP153" s="4"/>
+    </row>
+    <row r="154" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>152</v>
       </c>
-      <c r="B154" s="26">
+      <c r="B154" s="25">
         <v>1</v>
       </c>
       <c r="C154" s="4"/>
@@ -16474,12 +16725,13 @@
       <c r="CM154" s="4"/>
       <c r="CN154" s="4"/>
       <c r="CO154" s="4"/>
-    </row>
-    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP154" s="4"/>
+    </row>
+    <row r="155" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>153</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B155" s="25">
         <v>0</v>
       </c>
       <c r="C155" s="4"/>
@@ -16571,17 +16823,22 @@
       <c r="CK155" s="4"/>
       <c r="CL155" s="4"/>
       <c r="CM155" s="4">
+        <v>153</v>
+      </c>
+      <c r="CN155" s="4"/>
+      <c r="CO155" s="4">
+        <v>153</v>
+      </c>
+      <c r="CP155" s="4">
         <v>154</v>
       </c>
-      <c r="CN155" s="4"/>
-      <c r="CO155" s="4"/>
-    </row>
-    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>154</v>
       </c>
-      <c r="B156" s="26">
-        <v>1</v>
+      <c r="B156" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -16671,19 +16928,16 @@
       <c r="CJ156" s="4"/>
       <c r="CK156" s="4"/>
       <c r="CL156" s="4"/>
-      <c r="CM156" s="4">
-        <v>154</v>
-      </c>
-      <c r="CN156" s="4">
-        <v>154</v>
-      </c>
+      <c r="CM156" s="4"/>
+      <c r="CN156" s="4"/>
       <c r="CO156" s="4"/>
-    </row>
-    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP156" s="4"/>
+    </row>
+    <row r="157" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>155</v>
       </c>
-      <c r="B157" s="26">
+      <c r="B157" s="25">
         <v>0</v>
       </c>
       <c r="C157" s="4"/>
@@ -16777,12 +17031,13 @@
       <c r="CM157" s="4"/>
       <c r="CN157" s="4"/>
       <c r="CO157" s="4"/>
-    </row>
-    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP157" s="4"/>
+    </row>
+    <row r="158" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>156</v>
       </c>
-      <c r="B158" s="26">
+      <c r="B158" s="25">
         <v>0</v>
       </c>
       <c r="C158" s="4"/>
@@ -16876,12 +17131,13 @@
       <c r="CM158" s="4"/>
       <c r="CN158" s="4"/>
       <c r="CO158" s="4"/>
-    </row>
-    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP158" s="4"/>
+    </row>
+    <row r="159" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>157</v>
       </c>
-      <c r="B159" s="26">
+      <c r="B159" s="25">
         <v>0</v>
       </c>
       <c r="C159" s="4"/>
@@ -16975,12 +17231,13 @@
       <c r="CM159" s="4"/>
       <c r="CN159" s="4"/>
       <c r="CO159" s="4"/>
-    </row>
-    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP159" s="4"/>
+    </row>
+    <row r="160" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>158</v>
       </c>
-      <c r="B160" s="26">
+      <c r="B160" s="25">
         <v>0</v>
       </c>
       <c r="C160" s="4"/>
@@ -17074,12 +17331,13 @@
       <c r="CM160" s="4"/>
       <c r="CN160" s="4"/>
       <c r="CO160" s="4"/>
-    </row>
-    <row r="161" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP160" s="4"/>
+    </row>
+    <row r="161" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>159</v>
       </c>
-      <c r="B161" s="26">
+      <c r="B161" s="25">
         <v>0</v>
       </c>
       <c r="C161" s="4"/>
@@ -17173,12 +17431,13 @@
       <c r="CM161" s="4"/>
       <c r="CN161" s="4"/>
       <c r="CO161" s="4"/>
-    </row>
-    <row r="162" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP161" s="4"/>
+    </row>
+    <row r="162" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>160</v>
       </c>
-      <c r="B162" s="26">
+      <c r="B162" s="25">
         <v>0</v>
       </c>
       <c r="C162" s="4"/>
@@ -17272,77 +17531,78 @@
       <c r="CM162" s="4"/>
       <c r="CN162" s="4"/>
       <c r="CO162" s="4"/>
-    </row>
-    <row r="163" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP162" s="4"/>
+    </row>
+    <row r="163" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK163" s="17"/>
       <c r="BW163" s="5"/>
       <c r="CD163" s="5"/>
       <c r="CG163" s="5"/>
     </row>
-    <row r="164" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK164" s="17"/>
       <c r="BW164" s="5"/>
       <c r="CD164" s="5"/>
       <c r="CG164" s="5"/>
     </row>
-    <row r="165" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK165" s="17"/>
       <c r="BW165" s="5"/>
       <c r="CD165" s="5"/>
       <c r="CG165" s="5"/>
     </row>
-    <row r="166" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK166" s="17"/>
       <c r="BW166" s="5"/>
       <c r="CD166" s="5"/>
       <c r="CG166" s="5"/>
     </row>
-    <row r="167" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK167" s="17"/>
       <c r="BW167" s="5"/>
       <c r="CD167" s="5"/>
     </row>
-    <row r="168" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK168" s="17"/>
       <c r="BW168" s="5"/>
       <c r="CD168" s="5"/>
     </row>
-    <row r="169" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK169" s="17"/>
       <c r="BW169" s="5"/>
       <c r="CD169" s="5"/>
     </row>
-    <row r="170" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK170" s="17"/>
       <c r="BW170" s="5"/>
       <c r="CD170" s="5"/>
     </row>
-    <row r="171" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK171" s="17"/>
       <c r="BW171" s="5"/>
       <c r="CD171" s="5"/>
     </row>
-    <row r="172" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK172" s="17"/>
       <c r="BW172" s="5"/>
       <c r="CD172" s="5"/>
     </row>
-    <row r="173" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK173" s="17"/>
       <c r="BW173" s="5"/>
       <c r="CD173" s="5"/>
     </row>
-    <row r="174" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK174" s="17"/>
       <c r="BW174" s="5"/>
       <c r="CD174" s="5"/>
     </row>
-    <row r="175" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK175" s="17"/>
       <c r="BW175" s="5"/>
       <c r="CD175" s="5"/>
     </row>
-    <row r="176" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:94" x14ac:dyDescent="0.25">
       <c r="BK176" s="17"/>
       <c r="BW176" s="5"/>
       <c r="CD176" s="5"/>

--- a/Compiler Application/Data/scanner.xlsx
+++ b/Compiler Application/Data/scanner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2490" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-24120" yWindow="2490" windowWidth="20730" windowHeight="11760" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BW7" sqref="BW7"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CD6" sqref="CD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compiler Application/Data/scanner.xlsx
+++ b/Compiler Application/Data/scanner.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>A</t>
   </si>
@@ -139,9 +139,6 @@
     <t>!</t>
   </si>
   <si>
-    <t xml:space="preserve"> '='</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>space</t>
-  </si>
-  <si>
-    <t>newline</t>
   </si>
   <si>
     <t>letter</t>
@@ -372,6 +366,15 @@
   <si>
     <t>_</t>
   </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>newLine</t>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -546,6 +549,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -820,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP255"/>
+  <dimension ref="A1:CQ255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CD6" sqref="CD6"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CK5" sqref="CK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,12 +846,12 @@
     <col min="52" max="54" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -872,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -923,85 +929,85 @@
         <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BB1" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="BC1" s="2">
         <v>0</v>
@@ -1043,13 +1049,13 @@
         <v>25</v>
       </c>
       <c r="BP1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR1" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR1" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="BS1" s="3" t="s">
         <v>28</v>
@@ -1073,58 +1079,59 @@
         <v>35</v>
       </c>
       <c r="BZ1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="CA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG1" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="CF1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CG1" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="CH1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="CI1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CN1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="CM1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CO1" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="CP1" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="CQ1" s="28"/>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -1205,31 +1212,31 @@
         <v>131</v>
       </c>
       <c r="BD2" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BE2" s="4">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BF2" s="4">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BG2" s="4">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="BH2" s="4">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="BI2" s="4">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="BJ2" s="4">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="BK2" s="4">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="BL2" s="4">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="BM2" s="18">
         <v>101</v>
@@ -1313,10 +1320,12 @@
         <v>153</v>
       </c>
       <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
+      <c r="CO2" s="4">
+        <v>156</v>
+      </c>
       <c r="CP2" s="4"/>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1420,7 +1429,7 @@
       <c r="CO3" s="4"/>
       <c r="CP3" s="4"/>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1521,7 +1530,7 @@
       <c r="CO4" s="4"/>
       <c r="CP4" s="4"/>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1623,12 +1632,12 @@
       <c r="CO5" s="4"/>
       <c r="CP5" s="4"/>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1723,7 +1732,7 @@
       <c r="CO6" s="4"/>
       <c r="CP6" s="4"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1825,7 +1834,7 @@
       <c r="CO7" s="4"/>
       <c r="CP7" s="4"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1927,7 +1936,7 @@
       <c r="CO8" s="4"/>
       <c r="CP8" s="4"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2029,7 +2038,7 @@
       <c r="CO9" s="4"/>
       <c r="CP9" s="4"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2131,7 +2140,7 @@
       <c r="CO10" s="4"/>
       <c r="CP10" s="4"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2233,7 +2242,7 @@
       <c r="CO11" s="4"/>
       <c r="CP11" s="4"/>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2335,7 +2344,7 @@
       <c r="CO12" s="4"/>
       <c r="CP12" s="4"/>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2437,7 +2446,7 @@
       <c r="CO13" s="4"/>
       <c r="CP13" s="4"/>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2539,7 +2548,7 @@
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2641,12 +2650,12 @@
       <c r="CO15" s="4"/>
       <c r="CP15" s="4"/>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3360,7 +3369,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3664,7 +3673,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4376,7 +4385,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -4888,7 +4897,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4988,7 +4997,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -5292,7 +5301,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -5394,7 +5403,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -6210,7 +6219,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -6822,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -7738,7 +7747,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -8252,7 +8261,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -8354,7 +8363,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -9066,7 +9075,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -9370,7 +9379,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -9674,7 +9683,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -10080,7 +10089,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -10996,7 +11005,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -11402,7 +11411,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -11502,7 +11511,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -11602,7 +11611,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -11702,7 +11711,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -11802,7 +11811,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -12004,7 +12013,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -12104,7 +12113,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -12206,7 +12215,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -12406,7 +12415,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -12608,7 +12617,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -12708,7 +12717,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -12910,7 +12919,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -13010,7 +13019,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -13210,7 +13219,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -13312,7 +13321,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -13411,8 +13420,8 @@
       <c r="A122" s="12">
         <v>120</v>
       </c>
-      <c r="B122" s="25">
-        <v>0</v>
+      <c r="B122" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -13512,7 +13521,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -13714,7 +13723,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -13814,7 +13823,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -13914,7 +13923,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -14014,7 +14023,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -14114,7 +14123,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -14214,7 +14223,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -14314,7 +14323,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -14414,7 +14423,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -14514,7 +14523,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -14568,16 +14577,36 @@
       <c r="AZ133" s="13"/>
       <c r="BA133" s="13"/>
       <c r="BB133" s="13"/>
-      <c r="BC133" s="4"/>
-      <c r="BD133" s="4"/>
-      <c r="BE133" s="4"/>
-      <c r="BF133" s="4"/>
-      <c r="BG133" s="4"/>
-      <c r="BH133" s="4"/>
-      <c r="BI133" s="4"/>
-      <c r="BJ133" s="4"/>
-      <c r="BK133" s="16"/>
-      <c r="BL133" s="4"/>
+      <c r="BC133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BD133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BE133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BF133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BG133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BH133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BI133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BJ133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BK133" s="4">
+        <v>132</v>
+      </c>
+      <c r="BL133" s="4">
+        <v>132</v>
+      </c>
       <c r="BM133" s="16"/>
       <c r="BN133" s="4"/>
       <c r="BO133" s="16"/>
@@ -14614,7 +14643,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -14668,16 +14697,36 @@
       <c r="AZ134" s="13"/>
       <c r="BA134" s="13"/>
       <c r="BB134" s="13"/>
-      <c r="BC134" s="4"/>
-      <c r="BD134" s="4"/>
-      <c r="BE134" s="4"/>
-      <c r="BF134" s="4"/>
-      <c r="BG134" s="4"/>
-      <c r="BH134" s="4"/>
-      <c r="BI134" s="4"/>
-      <c r="BJ134" s="4"/>
-      <c r="BK134" s="16"/>
-      <c r="BL134" s="4"/>
+      <c r="BC134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BD134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BE134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BF134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BG134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BH134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BI134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BJ134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BK134" s="4">
+        <v>132</v>
+      </c>
+      <c r="BL134" s="4">
+        <v>132</v>
+      </c>
       <c r="BM134" s="16"/>
       <c r="BN134" s="4"/>
       <c r="BO134" s="16"/>
@@ -14713,8 +14762,8 @@
       <c r="A135" s="12">
         <v>133</v>
       </c>
-      <c r="B135" s="25" t="s">
-        <v>105</v>
+      <c r="B135" s="25">
+        <v>0</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -14813,8 +14862,8 @@
       <c r="A136" s="12">
         <v>134</v>
       </c>
-      <c r="B136" s="25" t="s">
-        <v>105</v>
+      <c r="B136" s="25">
+        <v>0</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -14913,8 +14962,8 @@
       <c r="A137" s="12">
         <v>135</v>
       </c>
-      <c r="B137" s="25" t="s">
-        <v>105</v>
+      <c r="B137" s="25">
+        <v>0</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -15013,8 +15062,8 @@
       <c r="A138" s="12">
         <v>136</v>
       </c>
-      <c r="B138" s="25" t="s">
-        <v>105</v>
+      <c r="B138" s="25">
+        <v>0</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -15113,8 +15162,8 @@
       <c r="A139" s="12">
         <v>137</v>
       </c>
-      <c r="B139" s="25" t="s">
-        <v>105</v>
+      <c r="B139" s="25">
+        <v>0</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -15213,8 +15262,8 @@
       <c r="A140" s="12">
         <v>138</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>105</v>
+      <c r="B140" s="25">
+        <v>0</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -15313,8 +15362,8 @@
       <c r="A141" s="12">
         <v>139</v>
       </c>
-      <c r="B141" s="25" t="s">
-        <v>105</v>
+      <c r="B141" s="25">
+        <v>0</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -15413,8 +15462,8 @@
       <c r="A142" s="12">
         <v>140</v>
       </c>
-      <c r="B142" s="25" t="s">
-        <v>105</v>
+      <c r="B142" s="25">
+        <v>0</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -15514,7 +15563,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -15718,7 +15767,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -15918,7 +15967,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -16232,7 +16281,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -16838,7 +16887,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
